--- a/Cyril/Documents word/fiche recette.xlsx
+++ b/Cyril/Documents word/fiche recette.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyril\OneDrive\Documents\Projet Théléton\Systeme-Escape-Game-Telethon\Cyril\Documents word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CB23B6-3359-483E-A033-EA61E273B068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E540F758-1866-4189-A29D-D36CA881C521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15945" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exemple" sheetId="1" r:id="rId1"/>
@@ -662,14 +662,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -701,20 +701,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2134,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U1083"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2148,9 +2148,9 @@
     <col min="7" max="7" width="24.5703125" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" customWidth="1"/>
+    <col min="12" max="12" width="31.85546875" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2192,7 +2192,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="44" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="31" t="s">
@@ -2208,11 +2208,11 @@
       <c r="G4" s="4"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="45" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="55"/>
-      <c r="M4" s="43"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
@@ -2221,11 +2221,11 @@
       <c r="G5" s="4"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="44"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="58"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
@@ -2241,11 +2241,11 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
       <c r="I6" s="4"/>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="L6" s="56"/>
-      <c r="M6" s="44"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
@@ -2267,13 +2267,13 @@
         <v>85</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="K7" s="58" t="s">
+      <c r="K7" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="57"/>
-      <c r="M7" s="45"/>
-    </row>
-    <row r="8" spans="2:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="59"/>
+      <c r="M7" s="60"/>
+    </row>
+    <row r="8" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
         <v>7</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
         <v>8</v>
       </c>
@@ -2321,7 +2321,7 @@
       <c r="L9" s="49"/>
       <c r="M9" s="53"/>
     </row>
-    <row r="10" spans="2:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E10" s="26">
         <v>3</v>
       </c>
@@ -2585,8 +2585,12 @@
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="24"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>83</v>
+      </c>
       <c r="E26" s="33">
         <v>3</v>
       </c>
@@ -2604,8 +2608,12 @@
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="24"/>
-      <c r="C27" s="37"/>
+      <c r="B27" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="E27" s="34" t="s">
         <v>32</v>
       </c>
@@ -2623,12 +2631,6 @@
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>83</v>
-      </c>
       <c r="E28" s="26">
         <v>1</v>
       </c>
@@ -2650,12 +2652,6 @@
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>25</v>
-      </c>
       <c r="E29" s="33">
         <v>2</v>
       </c>
@@ -2700,6 +2696,10 @@
       <c r="N31" s="4"/>
     </row>
     <row r="32" spans="2:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="10"/>
       <c r="I32" s="4"/>
       <c r="J32" s="19"/>
       <c r="K32" s="16"/>
@@ -2708,6 +2708,12 @@
       <c r="N32" s="4"/>
     </row>
     <row r="33" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="G33" s="4"/>
       <c r="I33" s="2"/>
@@ -2718,10 +2724,12 @@
       <c r="N33" s="4"/>
     </row>
     <row r="34" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="10"/>
+      <c r="B34" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>82</v>
+      </c>
       <c r="E34" s="8" t="s">
         <v>1</v>
       </c>
@@ -2743,10 +2751,10 @@
     </row>
     <row r="35" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>49</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>2</v>
@@ -2770,12 +2778,6 @@
       <c r="N35" s="4"/>
     </row>
     <row r="36" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>82</v>
-      </c>
       <c r="E36" s="26">
         <v>1</v>
       </c>
@@ -2798,12 +2800,6 @@
       <c r="N36" s="4"/>
     </row>
     <row r="37" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>49</v>
-      </c>
       <c r="E37" s="26">
         <v>2</v>
       </c>
@@ -2850,6 +2846,10 @@
       <c r="N39" s="4"/>
     </row>
     <row r="40" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="10"/>
       <c r="G40" s="1"/>
       <c r="I40" s="4"/>
       <c r="J40" s="19"/>
@@ -2859,6 +2859,12 @@
       <c r="N40" s="4"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>54</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="3"/>
       <c r="G41" s="4"/>
@@ -2870,10 +2876,12 @@
       <c r="N41" s="4"/>
     </row>
     <row r="42" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="10"/>
+      <c r="B42" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>84</v>
+      </c>
       <c r="E42" s="8" t="s">
         <v>1</v>
       </c>
@@ -2895,10 +2903,10 @@
     </row>
     <row r="43" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>54</v>
+        <v>8</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>62</v>
       </c>
       <c r="E43" s="29" t="s">
         <v>2</v>
@@ -2922,12 +2930,6 @@
       <c r="N43" s="4"/>
     </row>
     <row r="44" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>84</v>
-      </c>
       <c r="E44" s="26">
         <v>1</v>
       </c>
@@ -2950,12 +2952,6 @@
       <c r="N44" s="4"/>
     </row>
     <row r="45" spans="2:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>62</v>
-      </c>
       <c r="E45" s="26">
         <v>2</v>
       </c>
@@ -3051,6 +3047,10 @@
       <c r="N50" s="4"/>
     </row>
     <row r="51" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B51" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="10"/>
       <c r="E51" s="4"/>
       <c r="G51" s="4"/>
       <c r="I51" s="2"/>
@@ -3061,6 +3061,12 @@
       <c r="N51" s="4"/>
     </row>
     <row r="52" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B52" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>44</v>
+      </c>
       <c r="E52" s="4"/>
       <c r="G52" s="4"/>
       <c r="J52" s="3"/>
@@ -3070,10 +3076,10 @@
       <c r="N52" s="4"/>
     </row>
     <row r="53" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="10"/>
+      <c r="B53" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="27"/>
       <c r="E53" s="8" t="s">
         <v>1</v>
       </c>
@@ -3095,10 +3101,10 @@
     </row>
     <row r="54" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>71</v>
       </c>
       <c r="E54" s="29" t="s">
         <v>2</v>
@@ -3122,10 +3128,6 @@
       <c r="N54" s="4"/>
     </row>
     <row r="55" spans="2:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="27"/>
       <c r="E55" s="26">
         <v>1</v>
       </c>
@@ -3148,12 +3150,6 @@
       <c r="N55" s="4"/>
     </row>
     <row r="56" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>71</v>
-      </c>
       <c r="E56" s="26">
         <v>3</v>
       </c>
@@ -3233,6 +3229,7 @@
       <c r="O61" s="4"/>
     </row>
     <row r="62" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B62" s="2"/>
       <c r="E62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="1"/>
@@ -3257,7 +3254,6 @@
       <c r="O63" s="4"/>
     </row>
     <row r="64" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B64" s="2"/>
       <c r="E64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="1"/>
@@ -3351,6 +3347,7 @@
       <c r="O71" s="4"/>
     </row>
     <row r="72" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B72" s="2"/>
       <c r="E72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="1"/>
@@ -3375,7 +3372,6 @@
       <c r="O73" s="4"/>
     </row>
     <row r="74" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B74" s="2"/>
       <c r="E74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="1"/>
@@ -3731,6 +3727,7 @@
       <c r="O104" s="4"/>
     </row>
     <row r="105" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B105" s="2"/>
       <c r="E105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="1"/>
@@ -3753,7 +3750,6 @@
       <c r="O106" s="4"/>
     </row>
     <row r="107" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B107" s="2"/>
       <c r="E107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="1"/>
@@ -4110,6 +4106,7 @@
       <c r="O137" s="4"/>
     </row>
     <row r="138" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B138" s="2"/>
       <c r="E138" s="4"/>
       <c r="G138" s="4"/>
       <c r="H138" s="1"/>
@@ -4132,7 +4129,6 @@
       <c r="O139" s="4"/>
     </row>
     <row r="140" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B140" s="2"/>
       <c r="E140" s="4"/>
       <c r="G140" s="4"/>
       <c r="H140" s="1"/>
@@ -4488,6 +4484,7 @@
       <c r="O170" s="4"/>
     </row>
     <row r="171" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B171" s="2"/>
       <c r="E171" s="4"/>
       <c r="G171" s="4"/>
       <c r="H171" s="1"/>
@@ -4510,7 +4507,6 @@
       <c r="O172" s="4"/>
     </row>
     <row r="173" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B173" s="2"/>
       <c r="E173" s="4"/>
       <c r="G173" s="4"/>
       <c r="H173" s="1"/>
